--- a/_work/heat_maps_two/HeatMaps2.xlsx
+++ b/_work/heat_maps_two/HeatMaps2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothydement/Google Drive/NCSU/3-Fall-2018/CSC-591-023/CodeSmellsClassifiers/_work/heat_maps_two/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66182CED-9E7D-D04A-B6AB-B2F9822B4B3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED102CA-7261-0541-B785-00215D41C86C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{B5033CA0-079C-BF4E-8539-066AE5DF7E13}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="10" xr2:uid="{B5033CA0-079C-BF4E-8539-066AE5DF7E13}"/>
   </bookViews>
   <sheets>
     <sheet name="DC" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="38">
   <si>
     <t>Rank by Accuracy</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Rank by 1 - Norm DtH</t>
+  </si>
+  <si>
+    <t>Acc - F-Score</t>
+  </si>
+  <si>
+    <t>Acc - DtH</t>
+  </si>
+  <si>
+    <t>Acc- DtH</t>
   </si>
 </sst>
 </file>
@@ -639,6 +648,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,12 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,7 +726,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Data Class - Non-SMOTE</a:t>
+              <a:t>Data Class - Median Non-SMOTE</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1721,6 +1730,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1923630015"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1780,6 +1790,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1923628335"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3104,6 +3115,1194 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>God Class - Median Non-SMOTE Classifier Performance Scores </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-NU'!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC09-BA46-A68B-800AB662AB6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-NU'!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC09-BA46-A68B-800AB662AB6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 - Normalized Distance to Heaven</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-NU'!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CC09-BA46-A68B-800AB662AB6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1928200991"/>
+        <c:axId val="1929058671"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-NU'!$L$3:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CC09-BA46-A68B-800AB662AB6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-NU'!$M$3:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CC09-BA46-A68B-800AB662AB6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-NU'!$N$3:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CC09-BA46-A68B-800AB662AB6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1928200991"/>
+        <c:axId val="1929058671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1928200991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929058671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1929058671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928200991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent3"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>God Class - Classifier Performance Scores by Metric</a:t>
             </a:r>
           </a:p>
@@ -4261,7 +5460,1199 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Feature Envy - Median Non-SMOTE Classifier Performance Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FE-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FE-NU'!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89DD-1E40-8120-19A08D1191F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FE-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FE-NU'!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89DD-1E40-8120-19A08D1191F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 - Normalized Distance to Heaven</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FE-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FE-NU'!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-89DD-1E40-8120-19A08D1191F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1928138255"/>
+        <c:axId val="1928098047"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FE-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FE-NU'!$L$3:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-89DD-1E40-8120-19A08D1191F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FE-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FE-NU'!$M$3:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-89DD-1E40-8120-19A08D1191F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FE-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FE-NU'!$N$3:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-89DD-1E40-8120-19A08D1191F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1928138255"/>
+        <c:axId val="1928098047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1928138255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928098047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1928098047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928138255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5458,7 +7849,1199 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Long Method - Median Non-SMOTE Classifier Performance Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LM-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LM-NU'!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-836C-BD4E-A153-03A0D193B007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LM-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LM-NU'!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-836C-BD4E-A153-03A0D193B007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 - Normalized Distance to Heaven</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LM-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LM-NU'!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-836C-BD4E-A153-03A0D193B007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1956318783"/>
+        <c:axId val="1956078063"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LM-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LM-NU'!$L$3:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-836C-BD4E-A153-03A0D193B007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LM-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LM-NU'!$M$3:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-836C-BD4E-A153-03A0D193B007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LM-NU'!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LM-NU'!$N$3:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-836C-BD4E-A153-03A0D193B007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1956318783"/>
+        <c:axId val="1956078063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1956318783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956078063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1956078063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956318783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6811,6 +10394,126 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9430,20 +13133,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9516,6 +14767,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21998BA-04FE-BC47-A65B-B9096C28783C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -9553,7 +14845,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0256B655-BD86-CA40-BCC6-16E163E91A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9594,7 +14927,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9542BD8A-6DAE-954A-A854-745BBFE65B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9951,21 +15325,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
@@ -10718,21 +16092,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11485,10 +16859,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC81E97-9F7F-5648-A98B-E4E4C9E2D603}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11496,30 +16870,31 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="100"/>
+    <col min="12" max="12" width="10.83203125" style="97"/>
     <col min="13" max="14" width="10.83203125" style="9"/>
+    <col min="16" max="17" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="95"/>
     </row>
-    <row r="2" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -11549,8 +16924,14 @@
         <v>4</v>
       </c>
       <c r="L2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -11590,8 +16971,16 @@
       <c r="N3" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="96">
+        <f>C3-F3</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="Q3" s="96">
+        <f>C3-I3</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -11631,8 +17020,16 @@
       <c r="N4" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="96">
+        <f t="shared" ref="P4:P20" si="0">C4-F4</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q4" s="96">
+        <f t="shared" ref="Q4:Q20" si="1">C4-I4</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -11672,8 +17069,16 @@
       <c r="N5" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="96">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="Q5" s="96">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -11713,8 +17118,16 @@
       <c r="N6" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="96">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="Q6" s="96">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -11754,8 +17167,16 @@
       <c r="N7" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="96">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="Q7" s="96">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -11795,8 +17216,16 @@
       <c r="N8" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="96">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="Q8" s="96">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -11836,8 +17265,16 @@
       <c r="N9" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="96">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="Q9" s="96">
+        <f t="shared" si="1"/>
+        <v>0.31999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -11877,8 +17314,16 @@
       <c r="N10" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="96">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="Q10" s="96">
+        <f t="shared" si="1"/>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -11918,8 +17363,16 @@
       <c r="N11" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="96">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="Q11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -11959,8 +17412,16 @@
       <c r="N12" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="96">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="Q12" s="96">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -12000,8 +17461,16 @@
       <c r="N13" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="96">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="Q13" s="96">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -12041,8 +17510,16 @@
       <c r="N14" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="96">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="Q14" s="96">
+        <f t="shared" si="1"/>
+        <v>0.25999999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -12082,8 +17559,16 @@
       <c r="N15" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="96">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="Q15" s="96">
+        <f t="shared" si="1"/>
+        <v>0.35999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -12123,8 +17608,16 @@
       <c r="N16" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="96">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="Q16" s="96">
+        <f t="shared" si="1"/>
+        <v>0.26999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
@@ -12164,8 +17657,16 @@
       <c r="N17" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="96">
+        <f t="shared" si="0"/>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="Q17" s="96">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
@@ -12205,8 +17706,16 @@
       <c r="N18" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="96">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="Q18" s="96">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -12246,8 +17755,16 @@
       <c r="N19" s="9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="96">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q19" s="96">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -12286,6 +17803,24 @@
       </c>
       <c r="N20" s="9">
         <v>0.48</v>
+      </c>
+      <c r="P20" s="96">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="Q20" s="96">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="96">
+        <f>AVERAGE(P3:P20)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="Q21" s="96">
+        <f>AVERAGE(Q3:Q20)</f>
+        <v>0.2422222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -12294,7 +17829,32 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="P3:P20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12319,21 +17879,21 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13166,21 +18726,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13946,21 +19506,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14713,10 +20273,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D9BB9C-898E-1F4D-AB9E-A04766D2A98A}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14724,30 +20284,31 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="100"/>
+    <col min="12" max="12" width="10.83203125" style="97"/>
     <col min="13" max="14" width="10.83203125" style="9"/>
+    <col min="16" max="17" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="95"/>
     </row>
-    <row r="2" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -14777,8 +20338,14 @@
         <v>4</v>
       </c>
       <c r="L2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -14816,10 +20383,18 @@
         <v>0.31</v>
       </c>
       <c r="N3" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P3" s="96">
+        <f>C3-F3</f>
+        <v>0.13</v>
+      </c>
+      <c r="Q3" s="96">
+        <f>C3-I3</f>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -14857,10 +20432,18 @@
         <v>0.31</v>
       </c>
       <c r="N4" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P4" s="96">
+        <f t="shared" ref="P4:P20" si="0">C4-F4</f>
+        <v>0.79</v>
+      </c>
+      <c r="Q4" s="96">
+        <f t="shared" ref="Q4:Q20" si="1">C4-I4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -14898,10 +20481,18 @@
         <v>0.31</v>
       </c>
       <c r="N5" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P5" s="96">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="Q5" s="96">
+        <f t="shared" si="1"/>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -14939,10 +20530,18 @@
         <v>0.31</v>
       </c>
       <c r="N6" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P6" s="96">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="Q6" s="96">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -14980,10 +20579,18 @@
         <v>0.31</v>
       </c>
       <c r="N7" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P7" s="96">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="Q7" s="96">
+        <f t="shared" si="1"/>
+        <v>0.34999999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -15021,10 +20628,18 @@
         <v>0.31</v>
       </c>
       <c r="N8" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P8" s="96">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="Q8" s="96">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -15062,10 +20677,18 @@
         <v>0.31</v>
       </c>
       <c r="N9" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P9" s="96">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="Q9" s="96">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -15103,10 +20726,18 @@
         <v>0.31</v>
       </c>
       <c r="N10" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P10" s="96">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="Q10" s="96">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -15144,10 +20775,18 @@
         <v>0.31</v>
       </c>
       <c r="N11" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P11" s="96">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+      <c r="Q11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -15185,10 +20824,18 @@
         <v>0.31</v>
       </c>
       <c r="N12" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P12" s="96">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="96">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -15226,10 +20873,18 @@
         <v>0.31</v>
       </c>
       <c r="N13" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P13" s="96">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q13" s="96">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -15267,10 +20922,18 @@
         <v>0.31</v>
       </c>
       <c r="N14" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P14" s="96">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="Q14" s="96">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -15308,10 +20971,18 @@
         <v>0.31</v>
       </c>
       <c r="N15" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P15" s="96">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q15" s="96">
+        <f t="shared" si="1"/>
+        <v>0.49000000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -15349,10 +21020,18 @@
         <v>0.31</v>
       </c>
       <c r="N16" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P16" s="96">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="Q16" s="96">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
@@ -15390,10 +21069,18 @@
         <v>0.31</v>
       </c>
       <c r="N17" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P17" s="96">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q17" s="96">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
@@ -15431,10 +21118,18 @@
         <v>0.31</v>
       </c>
       <c r="N18" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P18" s="96">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q18" s="96">
+        <f t="shared" si="1"/>
+        <v>0.36000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -15472,10 +21167,18 @@
         <v>0.31</v>
       </c>
       <c r="N19" s="9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.49</v>
+      </c>
+      <c r="P19" s="96">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q19" s="96">
+        <f t="shared" si="1"/>
+        <v>0.49000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -15513,7 +21216,25 @@
         <v>0.31</v>
       </c>
       <c r="N20" s="9">
-        <v>0.48</v>
+        <v>0.49</v>
+      </c>
+      <c r="P20" s="96">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q20" s="96">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="96">
+        <f>AVERAGE(P3:P20)</f>
+        <v>0.64611111111111119</v>
+      </c>
+      <c r="Q21" s="96">
+        <f>AVERAGE(Q3:Q20)</f>
+        <v>0.38055555555555559</v>
       </c>
     </row>
   </sheetData>
@@ -15522,7 +21243,32 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="P3:P20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15547,21 +21293,21 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16392,21 +22138,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17159,10 +22905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EF9668-7847-D649-9411-0A38A31168D5}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17170,30 +22916,31 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="100"/>
+    <col min="12" max="12" width="10.83203125" style="97"/>
     <col min="13" max="14" width="10.83203125" style="9"/>
+    <col min="16" max="17" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="95"/>
     </row>
-    <row r="2" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -17223,8 +22970,14 @@
         <v>4</v>
       </c>
       <c r="L2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -17258,14 +23011,22 @@
       <c r="L3" s="95">
         <v>0.42</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="96">
         <v>0.27</v>
       </c>
-      <c r="N3" s="99">
+      <c r="N3" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="96">
+        <f>C3-F3</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="Q3" s="96">
+        <f>C3-I3</f>
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -17299,14 +23060,22 @@
       <c r="L4" s="95">
         <v>0.42</v>
       </c>
-      <c r="M4" s="99">
+      <c r="M4" s="96">
         <v>0.27</v>
       </c>
-      <c r="N4" s="99">
+      <c r="N4" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="96">
+        <f t="shared" ref="P4:P20" si="0">C4-F4</f>
+        <v>0.53</v>
+      </c>
+      <c r="Q4" s="96">
+        <f t="shared" ref="Q4:Q20" si="1">C4-I4</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -17340,14 +23109,22 @@
       <c r="L5" s="95">
         <v>0.42</v>
       </c>
-      <c r="M5" s="99">
+      <c r="M5" s="96">
         <v>0.27</v>
       </c>
-      <c r="N5" s="99">
+      <c r="N5" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="96">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="Q5" s="96">
+        <f t="shared" si="1"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -17381,14 +23158,22 @@
       <c r="L6" s="95">
         <v>0.42</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="96">
         <v>0.27</v>
       </c>
-      <c r="N6" s="99">
+      <c r="N6" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="96">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="Q6" s="96">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -17422,14 +23207,22 @@
       <c r="L7" s="95">
         <v>0.42</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="96">
         <v>0.27</v>
       </c>
-      <c r="N7" s="99">
+      <c r="N7" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="96">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="Q7" s="96">
+        <f t="shared" si="1"/>
+        <v>0.38999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -17463,14 +23256,22 @@
       <c r="L8" s="95">
         <v>0.42</v>
       </c>
-      <c r="M8" s="99">
+      <c r="M8" s="96">
         <v>0.27</v>
       </c>
-      <c r="N8" s="99">
+      <c r="N8" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="96">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="96">
+        <f t="shared" si="1"/>
+        <v>0.38000000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -17504,14 +23305,22 @@
       <c r="L9" s="95">
         <v>0.42</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="96">
         <v>0.27</v>
       </c>
-      <c r="N9" s="99">
+      <c r="N9" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="96">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="Q9" s="96">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -17545,14 +23354,22 @@
       <c r="L10" s="95">
         <v>0.42</v>
       </c>
-      <c r="M10" s="99">
+      <c r="M10" s="96">
         <v>0.27</v>
       </c>
-      <c r="N10" s="99">
+      <c r="N10" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="96">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="Q10" s="96">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -17586,14 +23403,22 @@
       <c r="L11" s="95">
         <v>0.42</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="96">
         <v>0.27</v>
       </c>
-      <c r="N11" s="99">
+      <c r="N11" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="96">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="Q11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -17627,14 +23452,22 @@
       <c r="L12" s="95">
         <v>0.42</v>
       </c>
-      <c r="M12" s="99">
+      <c r="M12" s="96">
         <v>0.27</v>
       </c>
-      <c r="N12" s="99">
+      <c r="N12" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="96">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="Q12" s="96">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -17668,14 +23501,22 @@
       <c r="L13" s="95">
         <v>0.42</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="96">
         <v>0.27</v>
       </c>
-      <c r="N13" s="99">
+      <c r="N13" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="96">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q13" s="96">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -17709,14 +23550,22 @@
       <c r="L14" s="95">
         <v>0.42</v>
       </c>
-      <c r="M14" s="99">
+      <c r="M14" s="96">
         <v>0.27</v>
       </c>
-      <c r="N14" s="99">
+      <c r="N14" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="96">
+        <f t="shared" si="0"/>
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="Q14" s="96">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -17750,14 +23599,22 @@
       <c r="L15" s="95">
         <v>0.42</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="96">
         <v>0.27</v>
       </c>
-      <c r="N15" s="99">
+      <c r="N15" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="96">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="Q15" s="96">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -17791,14 +23648,22 @@
       <c r="L16" s="95">
         <v>0.42</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="96">
         <v>0.27</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="96">
+        <f t="shared" si="0"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="Q16" s="96">
+        <f t="shared" si="1"/>
+        <v>0.2400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
@@ -17832,14 +23697,22 @@
       <c r="L17" s="95">
         <v>0.42</v>
       </c>
-      <c r="M17" s="99">
+      <c r="M17" s="96">
         <v>0.27</v>
       </c>
-      <c r="N17" s="99">
+      <c r="N17" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="96">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="96">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
@@ -17873,14 +23746,22 @@
       <c r="L18" s="95">
         <v>0.42</v>
       </c>
-      <c r="M18" s="99">
+      <c r="M18" s="96">
         <v>0.27</v>
       </c>
-      <c r="N18" s="99">
+      <c r="N18" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="96">
+        <f t="shared" si="0"/>
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="Q18" s="96">
+        <f t="shared" si="1"/>
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -17914,14 +23795,22 @@
       <c r="L19" s="95">
         <v>0.42</v>
       </c>
-      <c r="M19" s="99">
+      <c r="M19" s="96">
         <v>0.27</v>
       </c>
-      <c r="N19" s="99">
+      <c r="N19" s="96">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="96">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="Q19" s="96">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -17955,11 +23844,32 @@
       <c r="L20" s="95">
         <v>0.42</v>
       </c>
-      <c r="M20" s="99">
+      <c r="M20" s="96">
         <v>0.27</v>
       </c>
-      <c r="N20" s="99">
+      <c r="N20" s="96">
         <v>0.48</v>
+      </c>
+      <c r="P20" s="96">
+        <f t="shared" si="0"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="Q20" s="96">
+        <f t="shared" si="1"/>
+        <v>0.31999999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="P21" s="96">
+        <f>AVERAGE(P3:P20)</f>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="Q21" s="96">
+        <f>AVERAGE(Q3:Q20)</f>
+        <v>0.30555555555555564</v>
       </c>
     </row>
   </sheetData>
@@ -17968,6 +23878,30 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="P3:P20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17980,9 +23914,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17993,21 +23925,21 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18838,21 +24770,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -19618,21 +25550,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -20385,10 +26317,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408E77E-4FC6-6B40-9909-CCA68A4FB83E}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20396,30 +26328,31 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="100"/>
-    <col min="13" max="14" width="10.83203125" style="99"/>
+    <col min="12" max="12" width="10.83203125" style="97"/>
+    <col min="13" max="14" width="10.83203125" style="96"/>
+    <col min="16" max="17" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="95"/>
     </row>
-    <row r="2" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -20449,8 +26382,14 @@
         <v>4</v>
       </c>
       <c r="L2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -20484,14 +26423,22 @@
       <c r="L3" s="95">
         <v>0.45</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="96">
         <v>0.36</v>
       </c>
-      <c r="N3" s="99">
+      <c r="N3" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="96">
+        <f>C3-F3</f>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="Q3" s="96">
+        <f>C3-I3</f>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -20525,14 +26472,22 @@
       <c r="L4" s="95">
         <v>0.45</v>
       </c>
-      <c r="M4" s="99">
+      <c r="M4" s="96">
         <v>0.36</v>
       </c>
-      <c r="N4" s="99">
+      <c r="N4" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="96">
+        <f t="shared" ref="P4:P20" si="0">C4-F4</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="Q4" s="96">
+        <f t="shared" ref="Q4:Q20" si="1">C4-I4</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -20566,14 +26521,22 @@
       <c r="L5" s="95">
         <v>0.45</v>
       </c>
-      <c r="M5" s="99">
+      <c r="M5" s="96">
         <v>0.36</v>
       </c>
-      <c r="N5" s="99">
+      <c r="N5" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="96">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="Q5" s="96">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -20607,14 +26570,22 @@
       <c r="L6" s="95">
         <v>0.45</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="96">
         <v>0.36</v>
       </c>
-      <c r="N6" s="99">
+      <c r="N6" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="96">
+        <f t="shared" si="0"/>
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="Q6" s="96">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -20648,14 +26619,22 @@
       <c r="L7" s="95">
         <v>0.45</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="96">
         <v>0.36</v>
       </c>
-      <c r="N7" s="99">
+      <c r="N7" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="96">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="Q7" s="96">
+        <f t="shared" si="1"/>
+        <v>0.17999999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -20689,14 +26668,22 @@
       <c r="L8" s="95">
         <v>0.45</v>
       </c>
-      <c r="M8" s="99">
+      <c r="M8" s="96">
         <v>0.36</v>
       </c>
-      <c r="N8" s="99">
+      <c r="N8" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="96">
+        <f t="shared" si="0"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="Q8" s="96">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -20730,14 +26717,22 @@
       <c r="L9" s="95">
         <v>0.45</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="96">
         <v>0.36</v>
       </c>
-      <c r="N9" s="99">
+      <c r="N9" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="96">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="Q9" s="96">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -20771,14 +26766,22 @@
       <c r="L10" s="95">
         <v>0.45</v>
       </c>
-      <c r="M10" s="99">
+      <c r="M10" s="96">
         <v>0.36</v>
       </c>
-      <c r="N10" s="99">
+      <c r="N10" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="96">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="Q10" s="96">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -20812,14 +26815,22 @@
       <c r="L11" s="95">
         <v>0.45</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="96">
         <v>0.36</v>
       </c>
-      <c r="N11" s="99">
+      <c r="N11" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="96">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="Q11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -20853,14 +26864,22 @@
       <c r="L12" s="95">
         <v>0.45</v>
       </c>
-      <c r="M12" s="99">
+      <c r="M12" s="96">
         <v>0.36</v>
       </c>
-      <c r="N12" s="99">
+      <c r="N12" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="96">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="Q12" s="96">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -20894,14 +26913,22 @@
       <c r="L13" s="95">
         <v>0.45</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="96">
         <v>0.36</v>
       </c>
-      <c r="N13" s="99">
+      <c r="N13" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="96">
+        <f t="shared" si="0"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="Q13" s="96">
+        <f t="shared" si="1"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -20935,14 +26962,22 @@
       <c r="L14" s="95">
         <v>0.45</v>
       </c>
-      <c r="M14" s="99">
+      <c r="M14" s="96">
         <v>0.36</v>
       </c>
-      <c r="N14" s="99">
+      <c r="N14" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="96">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q14" s="96">
+        <f t="shared" si="1"/>
+        <v>0.19000000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -20976,14 +27011,22 @@
       <c r="L15" s="95">
         <v>0.45</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="96">
         <v>0.36</v>
       </c>
-      <c r="N15" s="99">
+      <c r="N15" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="96">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="Q15" s="96">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -21017,14 +27060,22 @@
       <c r="L16" s="95">
         <v>0.45</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="96">
         <v>0.36</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="96">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q16" s="96">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
@@ -21058,14 +27109,22 @@
       <c r="L17" s="95">
         <v>0.45</v>
       </c>
-      <c r="M17" s="99">
+      <c r="M17" s="96">
         <v>0.36</v>
       </c>
-      <c r="N17" s="99">
+      <c r="N17" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="96">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="Q17" s="96">
+        <f t="shared" si="1"/>
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
@@ -21099,14 +27158,22 @@
       <c r="L18" s="95">
         <v>0.45</v>
       </c>
-      <c r="M18" s="99">
+      <c r="M18" s="96">
         <v>0.36</v>
       </c>
-      <c r="N18" s="99">
+      <c r="N18" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="96">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q18" s="96">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -21140,14 +27207,22 @@
       <c r="L19" s="95">
         <v>0.45</v>
       </c>
-      <c r="M19" s="99">
+      <c r="M19" s="96">
         <v>0.36</v>
       </c>
-      <c r="N19" s="99">
+      <c r="N19" s="96">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="96">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q19" s="96">
+        <f t="shared" si="1"/>
+        <v>0.19000000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -21181,11 +27256,29 @@
       <c r="L20" s="95">
         <v>0.45</v>
       </c>
-      <c r="M20" s="99">
+      <c r="M20" s="96">
         <v>0.36</v>
       </c>
-      <c r="N20" s="99">
+      <c r="N20" s="96">
         <v>0.49</v>
+      </c>
+      <c r="P20" s="96">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="Q20" s="96">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="96">
+        <f>AVERAGE(P3:P20)</f>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="Q21" s="96">
+        <f>AVERAGE(Q3:Q20)</f>
+        <v>0.16722222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -21194,7 +27287,32 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="P3:P20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21219,21 +27337,21 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -22066,21 +28184,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/_work/heat_maps_two/HeatMaps2.xlsx
+++ b/_work/heat_maps_two/HeatMaps2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothydement/Google Drive/NCSU/3-Fall-2018/CSC-591-023/CodeSmellsClassifiers/_work/heat_maps_two/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED102CA-7261-0541-B785-00215D41C86C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDB475-AB83-E64C-801A-515CA877F653}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="10" xr2:uid="{B5033CA0-079C-BF4E-8539-066AE5DF7E13}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="1" activeTab="15" xr2:uid="{B5033CA0-079C-BF4E-8539-066AE5DF7E13}"/>
   </bookViews>
   <sheets>
     <sheet name="DC" sheetId="1" r:id="rId1"/>
@@ -15308,7 +15308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECDE24E-9267-A149-944C-85B341902713}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16861,8 +16863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC81E97-9F7F-5648-A98B-E4E4C9E2D603}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17865,9 +17867,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" activeCellId="2" sqref="C3:C20 F3:F20 I3:I20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20275,9 +20275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D9BB9C-898E-1F4D-AB9E-A04766D2A98A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21279,9 +21277,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22127,7 +22123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA353C87-05E8-A143-BD0E-81145DF7979A}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22907,8 +22905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EF9668-7847-D649-9411-0A38A31168D5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26319,7 +26317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408E77E-4FC6-6B40-9909-CCA68A4FB83E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
@@ -27324,7 +27322,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
